--- a/biology/Zoologie/Hyblaea/Hyblaea.xlsx
+++ b/biology/Zoologie/Hyblaea/Hyblaea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyblaea est un genre de lépidoptères de la famille des Hyblaeidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La tête est très petite. Les pédipalpes se projettent horizontalement devant le visage et forment un rostre. Les antennes sont finement ciliées chez le mâle. Le thorax et l'abdomen ont des écailles régulières. Le tibia a de longs poils et pas d'éperons. Les ailes antérieures ont une cellule costale ouverte, arquée près de la base, avec une marge interne lobée. Les 6 à 9 veines partent d'un angle proche de la cellule. Les ailes postérieures ont une cellule ouverte. La huitième veine forme une anastomose avec la septième veine jusqu'au milieu de la cellule[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tête est très petite. Les pédipalpes se projettent horizontalement devant le visage et forment un rostre. Les antennes sont finement ciliées chez le mâle. Le thorax et l'abdomen ont des écailles régulières. Le tibia a de longs poils et pas d'éperons. Les ailes antérieures ont une cellule costale ouverte, arquée près de la base, avec une marge interne lobée. Les 6 à 9 veines partent d'un angle proche de la cellule. Les ailes postérieures ont une cellule ouverte. La huitième veine forme une anastomose avec la septième veine jusqu'au milieu de la cellule.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyblaea se trouve dans les zones tropicale et subtropicale, au nord de la Chine et au Japon[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyblaea se trouve dans les zones tropicale et subtropicale, au nord de la Chine et au Japon.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Hyblaea amboinae
